--- a/job_listings.xlsx
+++ b/job_listings.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github repository\Job-Post-Enhanced\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B22528-A9D3-4CB6-92F6-12120F0A0117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="790" yWindow="1470" windowWidth="22160" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3290,12 +3296,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3303,8 +3309,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3357,13 +3370,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3401,7 +3422,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3435,6 +3456,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3469,9 +3491,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3644,23 +3667,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="60.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="41.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="60.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="60.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="41.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="60.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3689,7 +3714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="80" customHeight="1">
+    <row r="2" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3718,7 +3743,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="80" customHeight="1">
+    <row r="3" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3747,7 +3772,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="80" customHeight="1">
+    <row r="4" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3776,7 +3801,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="80" customHeight="1">
+    <row r="5" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3805,7 +3830,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="80" customHeight="1">
+    <row r="6" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3834,7 +3859,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="80" customHeight="1">
+    <row r="7" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3863,7 +3888,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="80" customHeight="1">
+    <row r="8" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3892,7 +3917,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="80" customHeight="1">
+    <row r="9" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3921,7 +3946,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="80" customHeight="1">
+    <row r="10" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3950,7 +3975,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="80" customHeight="1">
+    <row r="11" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3979,7 +4004,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="80" customHeight="1">
+    <row r="12" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4008,7 +4033,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="80" customHeight="1">
+    <row r="13" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4037,7 +4062,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="80" customHeight="1">
+    <row r="14" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4066,7 +4091,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="80" customHeight="1">
+    <row r="15" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4095,7 +4120,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="80" customHeight="1">
+    <row r="16" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4124,7 +4149,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="80" customHeight="1">
+    <row r="17" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4153,7 +4178,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="80" customHeight="1">
+    <row r="18" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4182,7 +4207,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="80" customHeight="1">
+    <row r="19" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4211,7 +4236,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="80" customHeight="1">
+    <row r="20" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4240,7 +4265,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="80" customHeight="1">
+    <row r="21" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4269,7 +4294,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="80" customHeight="1">
+    <row r="22" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4298,7 +4323,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="80" customHeight="1">
+    <row r="23" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4327,7 +4352,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="80" customHeight="1">
+    <row r="24" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4356,7 +4381,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="80" customHeight="1">
+    <row r="25" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4385,7 +4410,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="80" customHeight="1">
+    <row r="26" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4414,7 +4439,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="80" customHeight="1">
+    <row r="27" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4443,7 +4468,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="80" customHeight="1">
+    <row r="28" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4472,7 +4497,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="80" customHeight="1">
+    <row r="29" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4501,7 +4526,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="80" customHeight="1">
+    <row r="30" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4530,7 +4555,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="80" customHeight="1">
+    <row r="31" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4559,7 +4584,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="80" customHeight="1">
+    <row r="32" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4588,7 +4613,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="80" customHeight="1">
+    <row r="33" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4617,7 +4642,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="80" customHeight="1">
+    <row r="34" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4646,7 +4671,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="80" customHeight="1">
+    <row r="35" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4675,7 +4700,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="80" customHeight="1">
+    <row r="36" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4704,7 +4729,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="80" customHeight="1">
+    <row r="37" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4733,7 +4758,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="80" customHeight="1">
+    <row r="38" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4762,7 +4787,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="80" customHeight="1">
+    <row r="39" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4791,7 +4816,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="80" customHeight="1">
+    <row r="40" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4820,7 +4845,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="80" customHeight="1">
+    <row r="41" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4849,7 +4874,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="80" customHeight="1">
+    <row r="42" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4878,7 +4903,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="80" customHeight="1">
+    <row r="43" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4907,7 +4932,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="80" customHeight="1">
+    <row r="44" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4936,7 +4961,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="80" customHeight="1">
+    <row r="45" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4965,7 +4990,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="80" customHeight="1">
+    <row r="46" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4994,7 +5019,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="80" customHeight="1">
+    <row r="47" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5023,7 +5048,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="80" customHeight="1">
+    <row r="48" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5052,7 +5077,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="80" customHeight="1">
+    <row r="49" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5081,7 +5106,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="80" customHeight="1">
+    <row r="50" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5110,7 +5135,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="80" customHeight="1">
+    <row r="51" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5139,7 +5164,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="80" customHeight="1">
+    <row r="52" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5168,7 +5193,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="80" customHeight="1">
+    <row r="53" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5197,7 +5222,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="80" customHeight="1">
+    <row r="54" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5226,7 +5251,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="80" customHeight="1">
+    <row r="55" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5255,7 +5280,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="80" customHeight="1">
+    <row r="56" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5284,7 +5309,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="80" customHeight="1">
+    <row r="57" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5313,7 +5338,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="80" customHeight="1">
+    <row r="58" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5342,7 +5367,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="80" customHeight="1">
+    <row r="59" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5371,7 +5396,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="80" customHeight="1">
+    <row r="60" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5400,7 +5425,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="80" customHeight="1">
+    <row r="61" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5429,7 +5454,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="80" customHeight="1">
+    <row r="62" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5458,7 +5483,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="80" customHeight="1">
+    <row r="63" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5487,7 +5512,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="80" customHeight="1">
+    <row r="64" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5516,7 +5541,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="80" customHeight="1">
+    <row r="65" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5545,7 +5570,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="80" customHeight="1">
+    <row r="66" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5574,7 +5599,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="80" customHeight="1">
+    <row r="67" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5603,7 +5628,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="80" customHeight="1">
+    <row r="68" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5632,7 +5657,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="80" customHeight="1">
+    <row r="69" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5661,7 +5686,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="80" customHeight="1">
+    <row r="70" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5690,7 +5715,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="80" customHeight="1">
+    <row r="71" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5719,7 +5744,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="80" customHeight="1">
+    <row r="72" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5748,7 +5773,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="80" customHeight="1">
+    <row r="73" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5777,7 +5802,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="80" customHeight="1">
+    <row r="74" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5806,7 +5831,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="80" customHeight="1">
+    <row r="75" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5835,7 +5860,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="80" customHeight="1">
+    <row r="76" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5864,7 +5889,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="80" customHeight="1">
+    <row r="77" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5893,7 +5918,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="80" customHeight="1">
+    <row r="78" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5922,7 +5947,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="80" customHeight="1">
+    <row r="79" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5951,7 +5976,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="80" customHeight="1">
+    <row r="80" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5980,7 +6005,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="80" customHeight="1">
+    <row r="81" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6009,7 +6034,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="80" customHeight="1">
+    <row r="82" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -6038,7 +6063,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="80" customHeight="1">
+    <row r="83" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6067,7 +6092,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="80" customHeight="1">
+    <row r="84" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -6096,7 +6121,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="80" customHeight="1">
+    <row r="85" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -6125,7 +6150,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="80" customHeight="1">
+    <row r="86" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -6154,7 +6179,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="80" customHeight="1">
+    <row r="87" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -6183,7 +6208,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="80" customHeight="1">
+    <row r="88" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -6212,7 +6237,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="80" customHeight="1">
+    <row r="89" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -6241,7 +6266,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="80" customHeight="1">
+    <row r="90" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -6270,7 +6295,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="80" customHeight="1">
+    <row r="91" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -6299,7 +6324,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="80" customHeight="1">
+    <row r="92" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -6328,7 +6353,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="80" customHeight="1">
+    <row r="93" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -6357,7 +6382,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="80" customHeight="1">
+    <row r="94" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -6386,7 +6411,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="80" customHeight="1">
+    <row r="95" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -6415,7 +6440,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="80" customHeight="1">
+    <row r="96" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -6444,7 +6469,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="80" customHeight="1">
+    <row r="97" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -6473,7 +6498,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="80" customHeight="1">
+    <row r="98" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -6502,7 +6527,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="80" customHeight="1">
+    <row r="99" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -6531,7 +6556,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="80" customHeight="1">
+    <row r="100" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -6560,7 +6585,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="80" customHeight="1">
+    <row r="101" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -6590,6 +6615,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>